--- a/src/testData/files/PfsCardCreation_dev.xlsx
+++ b/src/testData/files/PfsCardCreation_dev.xlsx
@@ -1282,7 +1282,7 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FFCAF8DF"/>
+        <fgColor rgb="FFCAF7DD"/>
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -1306,7 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCAF8DF"/>
+        <fgColor rgb="FFCAF7DD"/>
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -1408,7 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8C0015"/>
+        <fgColor rgb="FF8B0016"/>
         <bgColor rgb="FF994501"/>
       </patternFill>
     </fill>
@@ -1444,8 +1444,8 @@
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FF003366"/>
-        <bgColor rgb="FF0D2B3D"/>
+        <fgColor rgb="FF0A2A3B"/>
+        <bgColor rgb="FF003366"/>
       </patternFill>
     </fill>
     <fill>
@@ -1457,7 +1457,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF8C0015"/>
+        <bgColor rgb="FF8B0016"/>
       </patternFill>
     </fill>
     <fill>
@@ -1468,8 +1468,8 @@
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF168F0E"/>
+        <fgColor rgb="FF168F0E"/>
+        <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
@@ -1517,7 +1517,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCAF8DF"/>
+        <bgColor rgb="FFCAF7DD"/>
       </patternFill>
     </fill>
     <fill>
@@ -2983,11 +2983,11 @@
       <rgbColor rgb="FFFFD966"/>
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FFB4C7E7"/>
-      <rgbColor rgb="FF8C0015"/>
+      <rgbColor rgb="FF8B0016"/>
       <rgbColor rgb="FF168F0E"/>
       <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFFA7D00"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -2995,7 +2995,7 @@
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFDEEBF7"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0264C2"/>
       <rgbColor rgb="FFC0D1F4"/>
@@ -3003,13 +3003,13 @@
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFC5E0B4"/>
-      <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFC9C9C9"/>
       <rgbColor rgb="FFEDEDED"/>
       <rgbColor rgb="FF9DC2E6"/>
       <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFCAF8DF"/>
+      <rgbColor rgb="FFCAF7DD"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -3025,12 +3025,12 @@
       <rgbColor rgb="FFA7A7A7"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF0A2A3B"/>
+      <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF994501"/>
       <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FF3C4268"/>
-      <rgbColor rgb="FF0D2B3D"/>
+      <rgbColor rgb="FFDBDBDB"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -3044,7 +3044,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3056,7 +3056,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.13"/>
@@ -3159,7 +3159,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>100471</v>
+        <v>1000471</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>25</v>
@@ -3229,7 +3229,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
